--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.82199059262363</v>
+        <v>8.510923</v>
       </c>
       <c r="H2">
-        <v>3.82199059262363</v>
+        <v>25.532769</v>
       </c>
       <c r="I2">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="J2">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N2">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q2">
-        <v>74.85748312253942</v>
+        <v>197.3274831463177</v>
       </c>
       <c r="R2">
-        <v>74.85748312253942</v>
+        <v>1775.947348316859</v>
       </c>
       <c r="S2">
-        <v>0.005205342437960693</v>
+        <v>0.01210409413377995</v>
       </c>
       <c r="T2">
-        <v>0.005205342437960693</v>
+        <v>0.01210409413377995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.82199059262363</v>
+        <v>8.510923</v>
       </c>
       <c r="H3">
-        <v>3.82199059262363</v>
+        <v>25.532769</v>
       </c>
       <c r="I3">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="J3">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N3">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P3">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q3">
-        <v>44.20113664052828</v>
+        <v>98.43248702886433</v>
       </c>
       <c r="R3">
-        <v>44.20113664052828</v>
+        <v>885.8923832597791</v>
       </c>
       <c r="S3">
-        <v>0.003073601232149415</v>
+        <v>0.006037861882300512</v>
       </c>
       <c r="T3">
-        <v>0.003073601232149415</v>
+        <v>0.006037861882300511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.82199059262363</v>
+        <v>8.510923</v>
       </c>
       <c r="H4">
-        <v>3.82199059262363</v>
+        <v>25.532769</v>
       </c>
       <c r="I4">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="J4">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N4">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q4">
-        <v>7.643853416889118</v>
+        <v>17.84135710172134</v>
       </c>
       <c r="R4">
-        <v>7.643853416889118</v>
+        <v>160.572213915492</v>
       </c>
       <c r="S4">
-        <v>0.0005315283512184159</v>
+        <v>0.001094391224123047</v>
       </c>
       <c r="T4">
-        <v>0.0005315283512184159</v>
+        <v>0.001094391224123047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.82199059262363</v>
+        <v>8.510923</v>
       </c>
       <c r="H5">
-        <v>3.82199059262363</v>
+        <v>25.532769</v>
       </c>
       <c r="I5">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="J5">
-        <v>0.01352270452954062</v>
+        <v>0.028708534116067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N5">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q5">
-        <v>67.7661209914874</v>
+        <v>154.4207088483723</v>
       </c>
       <c r="R5">
-        <v>67.7661209914874</v>
+        <v>1389.786379635351</v>
       </c>
       <c r="S5">
-        <v>0.004712232508212092</v>
+        <v>0.009472186875863495</v>
       </c>
       <c r="T5">
-        <v>0.004712232508212092</v>
+        <v>0.009472186875863497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>249.142147607747</v>
+        <v>251.3975576666667</v>
       </c>
       <c r="H6">
-        <v>249.142147607747</v>
+        <v>754.192673</v>
       </c>
       <c r="I6">
-        <v>0.8814976296532518</v>
+        <v>0.847999137222769</v>
       </c>
       <c r="J6">
-        <v>0.8814976296532518</v>
+        <v>0.8479991372227691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N6">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q6">
-        <v>4879.696497854964</v>
+        <v>5828.703575804245</v>
       </c>
       <c r="R6">
-        <v>4879.696497854964</v>
+        <v>52458.33218223821</v>
       </c>
       <c r="S6">
-        <v>0.3393179974148047</v>
+        <v>0.3575334547145717</v>
       </c>
       <c r="T6">
-        <v>0.3393179974148047</v>
+        <v>0.3575334547145717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>249.142147607747</v>
+        <v>251.3975576666667</v>
       </c>
       <c r="H7">
-        <v>249.142147607747</v>
+        <v>754.192673</v>
       </c>
       <c r="I7">
-        <v>0.8814976296532518</v>
+        <v>0.847999137222769</v>
       </c>
       <c r="J7">
-        <v>0.8814976296532518</v>
+        <v>0.8479991372227691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N7">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P7">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q7">
-        <v>2881.31690605894</v>
+        <v>2907.520939163983</v>
       </c>
       <c r="R7">
-        <v>2881.31690605894</v>
+        <v>26167.68845247585</v>
       </c>
       <c r="S7">
-        <v>0.2003572728162733</v>
+        <v>0.1783477221846574</v>
       </c>
       <c r="T7">
-        <v>0.2003572728162733</v>
+        <v>0.1783477221846574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>249.142147607747</v>
+        <v>251.3975576666667</v>
       </c>
       <c r="H8">
-        <v>249.142147607747</v>
+        <v>754.192673</v>
       </c>
       <c r="I8">
-        <v>0.8814976296532518</v>
+        <v>0.847999137222769</v>
       </c>
       <c r="J8">
-        <v>0.8814976296532518</v>
+        <v>0.8479991372227691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N8">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q8">
-        <v>498.2759664448253</v>
+        <v>527.002018562685</v>
       </c>
       <c r="R8">
-        <v>498.2759664448253</v>
+        <v>4743.018167064164</v>
       </c>
       <c r="S8">
-        <v>0.0346484670036972</v>
+        <v>0.03232637410494345</v>
       </c>
       <c r="T8">
-        <v>0.0346484670036972</v>
+        <v>0.03232637410494344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>249.142147607747</v>
+        <v>251.3975576666667</v>
       </c>
       <c r="H9">
-        <v>249.142147607747</v>
+        <v>754.192673</v>
       </c>
       <c r="I9">
-        <v>0.8814976296532518</v>
+        <v>0.847999137222769</v>
       </c>
       <c r="J9">
-        <v>0.8814976296532518</v>
+        <v>0.8479991372227691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N9">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q9">
-        <v>4417.435498520125</v>
+        <v>4561.313626928152</v>
       </c>
       <c r="R9">
-        <v>4417.435498520125</v>
+        <v>41051.82264235337</v>
       </c>
       <c r="S9">
-        <v>0.3071738924184767</v>
+        <v>0.2797915862185965</v>
       </c>
       <c r="T9">
-        <v>0.3071738924184767</v>
+        <v>0.2797915862185966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.6709569788561</v>
+        <v>19.800378</v>
       </c>
       <c r="H10">
-        <v>17.6709569788561</v>
+        <v>59.401134</v>
       </c>
       <c r="I10">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664916</v>
       </c>
       <c r="J10">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664918</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N10">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q10">
-        <v>346.1032495362041</v>
+        <v>459.0757966069859</v>
       </c>
       <c r="R10">
-        <v>346.1032495362041</v>
+        <v>4131.682169462874</v>
       </c>
       <c r="S10">
-        <v>0.02406687825421223</v>
+        <v>0.02815977059085431</v>
       </c>
       <c r="T10">
-        <v>0.02406687825421223</v>
+        <v>0.02815977059085432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.6709569788561</v>
+        <v>19.800378</v>
       </c>
       <c r="H11">
-        <v>17.6709569788561</v>
+        <v>59.401134</v>
       </c>
       <c r="I11">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664916</v>
       </c>
       <c r="J11">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664918</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N11">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P11">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q11">
-        <v>204.3637641334801</v>
+        <v>228.999892332666</v>
       </c>
       <c r="R11">
-        <v>204.3637641334801</v>
+        <v>2060.999030993994</v>
       </c>
       <c r="S11">
-        <v>0.01421078200671017</v>
+        <v>0.01404688393742272</v>
       </c>
       <c r="T11">
-        <v>0.01421078200671017</v>
+        <v>0.01404688393742272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.6709569788561</v>
+        <v>19.800378</v>
       </c>
       <c r="H12">
-        <v>17.6709569788561</v>
+        <v>59.401134</v>
       </c>
       <c r="I12">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664916</v>
       </c>
       <c r="J12">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664918</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N12">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q12">
-        <v>35.34132322126079</v>
+        <v>41.507321197368</v>
       </c>
       <c r="R12">
-        <v>35.34132322126079</v>
+        <v>373.565890776312</v>
       </c>
       <c r="S12">
-        <v>0.002457519033550348</v>
+        <v>0.002546064618081851</v>
       </c>
       <c r="T12">
-        <v>0.002457519033550348</v>
+        <v>0.002546064618081851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.6709569788561</v>
+        <v>19.800378</v>
       </c>
       <c r="H13">
-        <v>17.6709569788561</v>
+        <v>59.401134</v>
       </c>
       <c r="I13">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664916</v>
       </c>
       <c r="J13">
-        <v>0.06252216592068055</v>
+        <v>0.06678944543664918</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N13">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O13">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P13">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q13">
-        <v>313.3163673860602</v>
+        <v>359.254619766354</v>
       </c>
       <c r="R13">
-        <v>313.3163673860602</v>
+        <v>3233.291577897186</v>
       </c>
       <c r="S13">
-        <v>0.02178698662620781</v>
+        <v>0.02203672629029028</v>
       </c>
       <c r="T13">
-        <v>0.02178698662620781</v>
+        <v>0.02203672629029029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.9999786164342</v>
+        <v>16.750827</v>
       </c>
       <c r="H14">
-        <v>11.9999786164342</v>
+        <v>50.252481</v>
       </c>
       <c r="I14">
-        <v>0.04245749989652709</v>
+        <v>0.05650288322451468</v>
       </c>
       <c r="J14">
-        <v>0.04245749989652709</v>
+        <v>0.0565028832245147</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N14">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O14">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P14">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q14">
-        <v>235.0315038671828</v>
+        <v>388.371335580099</v>
       </c>
       <c r="R14">
-        <v>235.0315038671828</v>
+        <v>3495.342020220891</v>
       </c>
       <c r="S14">
-        <v>0.01634331546166025</v>
+        <v>0.02382274952160451</v>
       </c>
       <c r="T14">
-        <v>0.01634331546166025</v>
+        <v>0.02382274952160451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.9999786164342</v>
+        <v>16.750827</v>
       </c>
       <c r="H15">
-        <v>11.9999786164342</v>
+        <v>50.252481</v>
       </c>
       <c r="I15">
-        <v>0.04245749989652709</v>
+        <v>0.05650288322451468</v>
       </c>
       <c r="J15">
-        <v>0.04245749989652709</v>
+        <v>0.0565028832245147</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N15">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P15">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q15">
-        <v>138.7791732224857</v>
+        <v>193.730522694219</v>
       </c>
       <c r="R15">
-        <v>138.7791732224857</v>
+        <v>1743.574704247971</v>
       </c>
       <c r="S15">
-        <v>0.009650245903907397</v>
+        <v>0.01188345609992127</v>
       </c>
       <c r="T15">
-        <v>0.009650245903907397</v>
+        <v>0.01188345609992127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.9999786164342</v>
+        <v>16.750827</v>
       </c>
       <c r="H16">
-        <v>11.9999786164342</v>
+        <v>50.252481</v>
       </c>
       <c r="I16">
-        <v>0.04245749989652709</v>
+        <v>0.05650288322451468</v>
       </c>
       <c r="J16">
-        <v>0.04245749989652709</v>
+        <v>0.0565028832245147</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N16">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O16">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P16">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q16">
-        <v>23.99955607605537</v>
+        <v>35.114579964612</v>
       </c>
       <c r="R16">
-        <v>23.99955607605537</v>
+        <v>316.031219681508</v>
       </c>
       <c r="S16">
-        <v>0.001668849960269283</v>
+        <v>0.002153933018264104</v>
       </c>
       <c r="T16">
-        <v>0.001668849960269283</v>
+        <v>0.002153933018264104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.9999786164342</v>
+        <v>16.750827</v>
       </c>
       <c r="H17">
-        <v>11.9999786164342</v>
+        <v>50.252481</v>
       </c>
       <c r="I17">
-        <v>0.04245749989652709</v>
+        <v>0.05650288322451468</v>
       </c>
       <c r="J17">
-        <v>0.04245749989652709</v>
+        <v>0.0565028832245147</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N17">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O17">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P17">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q17">
-        <v>212.7666154872246</v>
+        <v>303.924096027711</v>
       </c>
       <c r="R17">
-        <v>212.7666154872246</v>
+        <v>2735.316864249399</v>
       </c>
       <c r="S17">
-        <v>0.01479508857069017</v>
+        <v>0.01864274458472481</v>
       </c>
       <c r="T17">
-        <v>0.01479508857069017</v>
+        <v>0.01864274458472482</v>
       </c>
     </row>
   </sheetData>
